--- a/RNN_python/schd_sam_output_data/anom_data1.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data1.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43132</v>
+        <v>43059</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.1510052339315</v>
+        <v>2.087338963102781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43132.04166666666</v>
+        <v>43059.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>39.9767379066936</v>
+        <v>4.019298372653125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43132.08333333334</v>
+        <v>43059.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>22.45402840840249</v>
+        <v>9.156106018441221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43132.125</v>
+        <v>43059.125</v>
       </c>
       <c r="D5" t="n">
-        <v>22.51676675159972</v>
+        <v>14.01271323099967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43132.16666666666</v>
+        <v>43059.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>13.56447075817501</v>
+        <v>13.95286279313457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43132.20833333334</v>
+        <v>43059.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>25.75100446499586</v>
+        <v>10.78101050182347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43132.25</v>
+        <v>43059.25</v>
       </c>
       <c r="D8" t="n">
-        <v>47.05782386833681</v>
+        <v>9.449146062805966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43132.29166666666</v>
+        <v>43059.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>246.5774124587208</v>
+        <v>66.71231833627867</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43132.33333333334</v>
+        <v>43059.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>446.6000938750985</v>
+        <v>455.880216074618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43132.375</v>
+        <v>43059.375</v>
       </c>
       <c r="D11" t="n">
-        <v>436.090359227996</v>
+        <v>403.2811628861361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43132.41666666666</v>
+        <v>43059.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>375.4283825691257</v>
+        <v>440.4075744848089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43132.45833333334</v>
+        <v>43059.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>300.1096207508147</v>
+        <v>294.1953848513028</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43132.5</v>
+        <v>43059.5</v>
       </c>
       <c r="D14" t="n">
-        <v>277.626032547899</v>
+        <v>281.8050098833709</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43132.54166666666</v>
+        <v>43059.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>227.9759097140224</v>
+        <v>232.2493863649845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43132.58333333334</v>
+        <v>43059.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>174.7318481522393</v>
+        <v>190.9561012134494</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43132.625</v>
+        <v>43059.625</v>
       </c>
       <c r="D17" t="n">
-        <v>131.6792622268364</v>
+        <v>152.9998005095808</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43132.66666666666</v>
+        <v>43059.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>96.48655240068685</v>
+        <v>119.8316916849528</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43132.70833333334</v>
+        <v>43059.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>67.60137839563208</v>
+        <v>91.73377342528384</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43132.75</v>
+        <v>43059.75</v>
       </c>
       <c r="D20" t="n">
-        <v>45.16680452333927</v>
+        <v>68.34701379635581</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43132.79166666666</v>
+        <v>43059.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>29.24491412737297</v>
+        <v>49.31601492456957</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43132.83333333334</v>
+        <v>43059.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>19.01914837508609</v>
+        <v>34.35109910006618</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43132.875</v>
+        <v>43059.875</v>
       </c>
       <c r="D23" t="n">
-        <v>13.29112347902478</v>
+        <v>23.24583400644717</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43132.91666666666</v>
+        <v>43059.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>10.72286991919844</v>
+        <v>15.8257758973823</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43132.95833333334</v>
+        <v>43059.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>1.053198855075948</v>
+        <v>7.03568798075726</v>
       </c>
     </row>
   </sheetData>
@@ -709,41 +709,41 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43132</v>
+        <v>43059</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43132.04166666666</v>
+        <v>43059.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43132.08333333334</v>
+        <v>43059.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43132.125</v>
+        <v>43059.125</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -753,200 +753,200 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43132.16666666666</v>
+        <v>43059.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43132.20833333334</v>
+        <v>43059.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43132.25</v>
+        <v>43059.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43132.29166666666</v>
+        <v>43059.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43132.33333333334</v>
+        <v>43059.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>428</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43132.375</v>
+        <v>43059.375</v>
       </c>
       <c r="D11" t="n">
-        <v>371</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43132.41666666666</v>
+        <v>43059.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>394</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43132.45833333334</v>
+        <v>43059.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>285</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43132.5</v>
+        <v>43059.5</v>
       </c>
       <c r="D14" t="n">
-        <v>286</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43132.54166666666</v>
+        <v>43059.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>247</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43132.58333333334</v>
+        <v>43059.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43132.625</v>
+        <v>43059.625</v>
       </c>
       <c r="D17" t="n">
-        <v>151</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43132.66666666666</v>
+        <v>43059.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43132.70833333334</v>
+        <v>43059.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43132.75</v>
+        <v>43059.75</v>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43132.79166666666</v>
+        <v>43059.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43132.83333333334</v>
+        <v>43059.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43132.875</v>
+        <v>43059.875</v>
       </c>
       <c r="D23" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43132.91666666666</v>
+        <v>43059.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43132.95833333334</v>
+        <v>43059.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data1.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data1.xlsx
@@ -427,7 +427,7 @@
         <v>43059</v>
       </c>
       <c r="D2" t="n">
-        <v>2.087338963102781</v>
+        <v>5.582046059941604</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43059.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4.019298372653125</v>
+        <v>5.270290051100517</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43059.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>9.156106018441221</v>
+        <v>9.347498404934669</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43059.125</v>
       </c>
       <c r="D5" t="n">
-        <v>14.01271323099967</v>
+        <v>14.05925571678668</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43059.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>13.95286279313457</v>
+        <v>15.465303593849</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43059.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>10.78101050182347</v>
+        <v>9.630508883822245</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43059.25</v>
       </c>
       <c r="D8" t="n">
-        <v>9.449146062805966</v>
+        <v>6.974326480604418</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43059.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>66.71231833627867</v>
+        <v>49.44703109421476</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43059.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>455.880216074618</v>
+        <v>446.1976823995775</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43059.375</v>
       </c>
       <c r="D11" t="n">
-        <v>403.2811628861361</v>
+        <v>397.3095861108924</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43059.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>440.4075744848089</v>
+        <v>425.7590362222255</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43059.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>294.1953848513028</v>
+        <v>293.9898096871963</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43059.5</v>
       </c>
       <c r="D14" t="n">
-        <v>281.8050098833709</v>
+        <v>288.4549917694634</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43059.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>232.2493863649845</v>
+        <v>225.4240063774326</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43059.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>190.9561012134494</v>
+        <v>189.2304680808387</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43059.625</v>
       </c>
       <c r="D17" t="n">
-        <v>152.9998005095808</v>
+        <v>154.3212797091031</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43059.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>119.8316916849528</v>
+        <v>122.1001176109753</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43059.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>91.73377342528384</v>
+        <v>92.40597522779353</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43059.75</v>
       </c>
       <c r="D20" t="n">
-        <v>68.34701379635581</v>
+        <v>65.97522038498983</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43059.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>49.31601492456957</v>
+        <v>43.96977051105068</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43059.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>34.35109910006618</v>
+        <v>27.18259309711466</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43059.875</v>
       </c>
       <c r="D23" t="n">
-        <v>23.24583400644717</v>
+        <v>15.74655558504499</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43059.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>15.8257758973823</v>
+        <v>9.254157171335237</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43059.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>7.03568798075726</v>
+        <v>5.446465775257678</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data1.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data1.xlsx
@@ -427,7 +427,7 @@
         <v>43059</v>
       </c>
       <c r="D2" t="n">
-        <v>5.582046059941604</v>
+        <v>-0.5301832207647124</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43059.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5.270290051100517</v>
+        <v>-5.283463817354374</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43059.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>9.347498404934669</v>
+        <v>0.7420958790346646</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43059.125</v>
       </c>
       <c r="D5" t="n">
-        <v>14.05925571678668</v>
+        <v>5.598331953487346</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43059.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>15.465303593849</v>
+        <v>7.335929871698127</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43059.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>9.630508883822245</v>
+        <v>5.642886199422065</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43059.25</v>
       </c>
       <c r="D8" t="n">
-        <v>6.974326480604418</v>
+        <v>14.71982852531579</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43059.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>49.44703109421476</v>
+        <v>52.70036587298402</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43059.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>446.1976823995775</v>
+        <v>452.054277055007</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43059.375</v>
       </c>
       <c r="D11" t="n">
-        <v>397.3095861108924</v>
+        <v>423.543589156223</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43059.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>425.7590362222255</v>
+        <v>452.608191841237</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43059.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>293.9898096871963</v>
+        <v>289.5000283090769</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43059.5</v>
       </c>
       <c r="D14" t="n">
-        <v>288.4549917694634</v>
+        <v>288.4699256599096</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43059.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>225.4240063774326</v>
+        <v>213.3667985523957</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43059.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>189.2304680808387</v>
+        <v>168.8459197007125</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43059.625</v>
       </c>
       <c r="D17" t="n">
-        <v>154.3212797091031</v>
+        <v>130.935721860708</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43059.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>122.1001176109753</v>
+        <v>99.4544290993076</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43059.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>92.40597522779353</v>
+        <v>72.84482324516769</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43059.75</v>
       </c>
       <c r="D20" t="n">
-        <v>65.97522038498983</v>
+        <v>50.23888075272525</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43059.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>43.96977051105068</v>
+        <v>31.88914563886442</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43059.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27.18259309711466</v>
+        <v>18.42705637081187</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43059.875</v>
       </c>
       <c r="D23" t="n">
-        <v>15.74655558504499</v>
+        <v>10.10378949826442</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43059.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>9.254157171335237</v>
+        <v>5.987514440487899</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43059.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>5.446465775257678</v>
+        <v>-3.426447795303503</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data1.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data1.xlsx
@@ -427,7 +427,7 @@
         <v>43059</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.5301832207647124</v>
+        <v>2.023573901884035</v>
       </c>
     </row>
     <row r="3">
@@ -437,7 +437,7 @@
         <v>43059.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.283463817354374</v>
+        <v>8.143835671593649</v>
       </c>
     </row>
     <row r="4">
@@ -447,7 +447,7 @@
         <v>43059.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7420958790346646</v>
+        <v>13.11620262666396</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +457,7 @@
         <v>43059.125</v>
       </c>
       <c r="D5" t="n">
-        <v>5.598331953487346</v>
+        <v>15.38777107623076</v>
       </c>
     </row>
     <row r="6">
@@ -467,7 +467,7 @@
         <v>43059.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>7.335929871698127</v>
+        <v>15.45978070537039</v>
       </c>
     </row>
     <row r="7">
@@ -477,7 +477,7 @@
         <v>43059.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>5.642886199422065</v>
+        <v>11.29434752182337</v>
       </c>
     </row>
     <row r="8">
@@ -487,7 +487,7 @@
         <v>43059.25</v>
       </c>
       <c r="D8" t="n">
-        <v>14.71982852531579</v>
+        <v>7.48780488654937</v>
       </c>
     </row>
     <row r="9">
@@ -497,7 +497,7 @@
         <v>43059.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>52.70036587298402</v>
+        <v>41.74593749118227</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>43059.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>452.054277055007</v>
+        <v>470.6016034453897</v>
       </c>
     </row>
     <row r="11">
@@ -517,7 +517,7 @@
         <v>43059.375</v>
       </c>
       <c r="D11" t="n">
-        <v>423.543589156223</v>
+        <v>375.5527987678147</v>
       </c>
     </row>
     <row r="12">
@@ -527,7 +527,7 @@
         <v>43059.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>452.608191841237</v>
+        <v>455.9288174932298</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>43059.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>289.5000283090769</v>
+        <v>279.3543142780439</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>43059.5</v>
       </c>
       <c r="D14" t="n">
-        <v>288.4699256599096</v>
+        <v>303.637191281648</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +557,7 @@
         <v>43059.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>213.3667985523957</v>
+        <v>229.4792557266758</v>
       </c>
     </row>
     <row r="16">
@@ -567,7 +567,7 @@
         <v>43059.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>168.8459197007125</v>
+        <v>184.8416185942438</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>43059.625</v>
       </c>
       <c r="D17" t="n">
-        <v>130.935721860708</v>
+        <v>152.3236774562513</v>
       </c>
     </row>
     <row r="18">
@@ -587,7 +587,7 @@
         <v>43059.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>99.4544290993076</v>
+        <v>120.8963808709286</v>
       </c>
     </row>
     <row r="19">
@@ -597,7 +597,7 @@
         <v>43059.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>72.84482324516769</v>
+        <v>91.78003976664694</v>
       </c>
     </row>
     <row r="20">
@@ -607,7 +607,7 @@
         <v>43059.75</v>
       </c>
       <c r="D20" t="n">
-        <v>50.23888075272525</v>
+        <v>65.71650177878661</v>
       </c>
     </row>
     <row r="21">
@@ -617,7 +617,7 @@
         <v>43059.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>31.88914563886442</v>
+        <v>43.87569583786127</v>
       </c>
     </row>
     <row r="22">
@@ -627,7 +627,7 @@
         <v>43059.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>18.42705637081187</v>
+        <v>27.13999174454598</v>
       </c>
     </row>
     <row r="23">
@@ -637,7 +637,7 @@
         <v>43059.875</v>
       </c>
       <c r="D23" t="n">
-        <v>10.10378949826442</v>
+        <v>15.97978053803089</v>
       </c>
     </row>
     <row r="24">
@@ -647,7 +647,7 @@
         <v>43059.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>5.987514440487899</v>
+        <v>10.14781354690518</v>
       </c>
     </row>
     <row r="25">
@@ -657,7 +657,7 @@
         <v>43059.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.426447795303503</v>
+        <v>9.366824096299055</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/anom_data1.xlsx
+++ b/RNN_python/schd_sam_output_data/anom_data1.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43059</v>
+        <v>43056</v>
       </c>
       <c r="D2" t="n">
-        <v>2.023573901884035</v>
+        <v>6.199833225272755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43059.04166666666</v>
+        <v>43056.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>8.143835671593649</v>
+        <v>20.95115596606539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43059.08333333334</v>
+        <v>43056.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>13.11620262666396</v>
+        <v>-166.0212732842217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43059.125</v>
+        <v>43056.125</v>
       </c>
       <c r="D5" t="n">
-        <v>15.38777107623076</v>
+        <v>-194.8187271025813</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43059.16666666666</v>
+        <v>43056.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>15.45978070537039</v>
+        <v>-82.37886418205963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43059.20833333334</v>
+        <v>43056.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>11.29434752182337</v>
+        <v>-56.90198409699269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43059.25</v>
+        <v>43056.25</v>
       </c>
       <c r="D8" t="n">
-        <v>7.48780488654937</v>
+        <v>101.0414825336607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43059.29166666666</v>
+        <v>43056.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>41.74593749118227</v>
+        <v>254.7614486583645</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43059.33333333334</v>
+        <v>43056.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>470.6016034453897</v>
+        <v>406.9106480902143</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43059.375</v>
+        <v>43056.375</v>
       </c>
       <c r="D11" t="n">
-        <v>375.5527987678147</v>
+        <v>287.7521740061358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43059.41666666666</v>
+        <v>43056.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>455.9288174932298</v>
+        <v>289.9870470005586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43059.45833333334</v>
+        <v>43056.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>279.3543142780439</v>
+        <v>291.0769436156014</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43059.5</v>
+        <v>43056.5</v>
       </c>
       <c r="D14" t="n">
-        <v>303.637191281648</v>
+        <v>303.1075340140285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43059.54166666666</v>
+        <v>43056.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>229.4792557266758</v>
+        <v>275.5723988747991</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43059.58333333334</v>
+        <v>43056.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>184.8416185942438</v>
+        <v>258.8908841987985</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43059.625</v>
+        <v>43056.625</v>
       </c>
       <c r="D17" t="n">
-        <v>152.3236774562513</v>
+        <v>265.0746367146987</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43059.66666666666</v>
+        <v>43056.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>120.8963808709286</v>
+        <v>262.5499282398931</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43059.70833333334</v>
+        <v>43056.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>91.78003976664694</v>
+        <v>265.5620606266381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43059.75</v>
+        <v>43056.75</v>
       </c>
       <c r="D20" t="n">
-        <v>65.71650177878661</v>
+        <v>265.4510921472607</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43059.79166666666</v>
+        <v>43056.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>43.87569583786127</v>
+        <v>268.1286745257636</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43059.83333333334</v>
+        <v>43056.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27.13999174454598</v>
+        <v>269.0306812281156</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43059.875</v>
+        <v>43056.875</v>
       </c>
       <c r="D23" t="n">
-        <v>15.97978053803089</v>
+        <v>270.9429784626116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43059.91666666666</v>
+        <v>43056.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>10.14781354690518</v>
+        <v>271.9089633870319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43059.95833333334</v>
+        <v>43056.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>9.366824096299055</v>
+        <v>192.0781655395601</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43059</v>
+        <v>43056</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43059.04166666666</v>
+        <v>43056.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43059.08333333334</v>
+        <v>43056.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43059.125</v>
+        <v>43056.125</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43059.16666666666</v>
+        <v>43056.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43059.20833333334</v>
+        <v>43056.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43059.25</v>
+        <v>43056.25</v>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43059.29166666666</v>
+        <v>43056.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>78</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43059.33333333334</v>
+        <v>43056.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>594</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43059.375</v>
+        <v>43056.375</v>
       </c>
       <c r="D11" t="n">
-        <v>512</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43059.41666666666</v>
+        <v>43056.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>582</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43059.45833333334</v>
+        <v>43056.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>348</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43059.5</v>
+        <v>43056.5</v>
       </c>
       <c r="D14" t="n">
-        <v>312</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43059.54166666666</v>
+        <v>43056.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>311</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43059.58333333334</v>
+        <v>43056.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>208</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43059.625</v>
+        <v>43056.625</v>
       </c>
       <c r="D17" t="n">
-        <v>172</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43059.66666666666</v>
+        <v>43056.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43059.70833333334</v>
+        <v>43056.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43059.75</v>
+        <v>43056.75</v>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43059.79166666666</v>
+        <v>43056.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43059.83333333334</v>
+        <v>43056.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43059.875</v>
+        <v>43056.875</v>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43059.91666666666</v>
+        <v>43056.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43059.95833333334</v>
+        <v>43056.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
